--- a/src/pause-web/src/main/resources/QA360Relatorio.xlsx
+++ b/src/pause-web/src/main/resources/QA360Relatorio.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.almeida\Desktop\projetos\PAUSE\regpontov2\src\pause-web\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="QA360" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Extrato Horas - Banco de Horas</t>
   </si>
@@ -90,6 +94,9 @@
   </si>
   <si>
     <t>Período:</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -100,13 +107,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,6 +123,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,24 +162,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -537,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,143 +619,495 @@
     <col min="17" max="17" width="3" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="13" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="13"/>
+    <col min="24" max="24" width="7.140625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="13" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="R2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="R3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="R3:V3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobre Aviso (Plantão); SA = Sobre Aviso sem Acionamento / ST = Sobre Aviso Trabalhado / TP = Tipo do Ponto</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/pause-web/src/main/resources/QA360Relatorio.xlsx
+++ b/src/pause-web/src/main/resources/QA360Relatorio.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="QA360" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'QA360'!$1:$5</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -179,20 +182,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -250,8 +253,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>97316</xdr:rowOff>
     </xdr:to>
@@ -592,10 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,96 +625,96 @@
     <col min="17" max="17" width="3" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" style="13" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="13"/>
-    <col min="24" max="24" width="7.140625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" style="8" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="8"/>
+    <col min="24" max="24" width="7.140625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" style="8" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="R2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="R3" s="8" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="R3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -771,19 +777,19 @@
       <c r="T5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Z5" s="4" t="s">
@@ -878,11 +884,11 @@
       <c r="R9" s="5"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1103,8 +1109,8 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="R3:V3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.34166666666666667" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LLegenda : Origem Marcação: M- Manual / E- Eletrônico / SA = Sobre Aviso (Plantão); SA = Sobre Aviso sem Acionamento / ST = Sobre Aviso Trabalhado / TP = Tipo do Ponto</oddFooter>
   </headerFooter>
